--- a/StructureDefinition-profile-Invoice.xlsx
+++ b/StructureDefinition-profile-Invoice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="319">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7206858-06:00</t>
+    <t>2026-02-09T22:05:43.1776283-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,79 @@
     <t>Invoice.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Invoice.extension:creation</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.creation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Invoice.creation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Date/time(s) of when this Invoice was posted.</t>
+  </si>
+  <si>
+    <t>Element `Invoice.creation` is will have a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Invoice.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.period|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Invoice.period[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Date/time(s) range of services included in this invoice.</t>
+  </si>
+  <si>
+    <t>Element `Invoice.period[x]` is will have a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
+  </si>
+  <si>
+    <t>Invoice.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Invoice.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +502,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -623,9 +672,6 @@
     <t>Invoice date / posting date</t>
   </si>
   <si>
-    <t>Date/time(s) of when this Invoice was posted.</t>
-  </si>
-  <si>
     <t>The list of types may be constrained as appropriate for the type of charge item.</t>
   </si>
   <si>
@@ -672,6 +718,9 @@
     <t>Invoice.participant.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -774,6 +823,25 @@
   </si>
   <si>
     <t>Invoice.lineItem.extension</t>
+  </si>
+  <si>
+    <t>Invoice.lineItem.extension:serviced</t>
+  </si>
+  <si>
+    <t>serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem.serviced|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Invoice.lineItem.serviced[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Date/time(s) range when this service was delivered or completed.</t>
+  </si>
+  <si>
+    <t>Element `Invoice.lineItem.serviced[x]` is will have a context of Invoice.lineItem based on following the parent source element upwards and mapping to `Invoice`.</t>
   </si>
   <si>
     <t>Invoice.lineItem.modifierExtension</t>
@@ -1248,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2223,7 +2291,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2242,17 +2310,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2289,16 +2355,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2319,7 +2383,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2333,43 +2397,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2417,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2426,7 +2490,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2435,7 +2499,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2446,12 +2510,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2460,7 +2526,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2469,21 +2535,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2531,7 +2597,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2540,19 +2606,19 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2567,14 +2633,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2583,19 +2649,23 @@
         <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2619,13 +2689,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2643,28 +2713,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2672,10 +2742,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2686,7 +2756,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2695,21 +2765,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2757,13 +2827,13 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2772,13 +2842,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2786,18 +2856,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -2806,19 +2876,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2845,13 +2915,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2869,10 +2939,10 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>87</v>
@@ -2884,28 +2954,28 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2921,7 +2991,7 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>177</v>
@@ -2932,10 +3002,10 @@
       <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2983,7 +3053,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2998,28 +3068,28 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3038,13 +3108,13 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3095,7 +3165,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3110,28 +3180,28 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3150,18 +3220,18 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3209,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3224,7 +3294,7 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>197</v>
@@ -3233,15 +3303,15 @@
         <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3252,7 +3322,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3261,16 +3331,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3321,13 +3391,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3336,24 +3406,24 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3373,18 +3443,20 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3433,7 +3505,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3445,16 +3517,16 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3462,14 +3534,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3488,17 +3560,15 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3547,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3559,13 +3629,13 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3576,46 +3646,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3663,25 +3729,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3692,21 +3758,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3718,15 +3784,17 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3775,25 +3843,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3804,42 +3872,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3887,28 +3959,28 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3916,10 +3988,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3942,17 +4014,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4001,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4016,10 +4086,10 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4030,10 +4100,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4041,7 +4111,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4056,17 +4126,15 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4115,10 +4183,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4130,13 +4198,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4144,10 +4212,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4158,7 +4226,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4170,15 +4238,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4227,13 +4297,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4242,10 +4312,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4256,10 +4326,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4282,15 +4352,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4339,7 +4411,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4351,13 +4423,13 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4368,14 +4440,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4394,17 +4466,15 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4453,7 +4523,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4465,13 +4535,13 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4482,46 +4552,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4569,25 +4635,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4598,10 +4664,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4612,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4624,13 +4690,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4669,31 +4735,29 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4710,18 +4774,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
@@ -4736,15 +4802,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4793,25 +4861,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4822,14 +4890,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4842,22 +4910,26 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4905,7 +4977,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4917,13 +4989,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4934,10 +5006,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4960,13 +5032,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5017,7 +5089,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5029,13 +5101,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5046,21 +5118,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5072,17 +5144,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5131,25 +5201,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5160,14 +5230,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5180,26 +5250,22 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5247,7 +5313,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5259,13 +5325,13 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5276,10 +5342,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5287,7 +5353,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5302,13 +5368,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5335,13 +5401,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5359,10 +5425,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
@@ -5371,38 +5437,38 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5414,15 +5480,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5471,73 +5539,75 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5585,25 +5655,25 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5614,10 +5684,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5625,7 +5695,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
@@ -5640,17 +5710,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5675,13 +5743,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5699,10 +5767,10 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>87</v>
@@ -5714,24 +5782,24 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5742,7 +5810,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5754,13 +5822,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5811,13 +5879,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -5826,24 +5894,24 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5863,19 +5931,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5925,7 +5993,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5940,7 +6008,7 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -5954,10 +6022,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5977,19 +6045,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6039,7 +6107,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6054,7 +6122,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6068,10 +6136,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6082,7 +6150,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6094,17 +6162,15 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6153,13 +6219,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6168,10 +6234,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6182,10 +6248,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6196,7 +6262,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6205,18 +6271,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6265,13 +6333,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6280,16 +6348,356 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>297</v>
+      <c r="L45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Invoice.xlsx
+++ b/StructureDefinition-profile-Invoice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1776283-06:00</t>
+    <t>2026-02-17T14:42:26.8340044-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Date/time(s) of when this Invoice was posted.</t>
   </si>
   <si>
-    <t>Element `Invoice.creation` is will have a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
+    <t>Element `Invoice.creation` has a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -485,7 +485,7 @@
     <t>Date/time(s) range of services included in this invoice.</t>
   </si>
   <si>
-    <t>Element `Invoice.period[x]` is will have a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
+    <t>Element `Invoice.period[x]` has a context of Invoice based on following the parent source element upwards and mapping to `Invoice`.</t>
   </si>
   <si>
     <t>Invoice.modifierExtension</t>
@@ -718,13 +718,23 @@
     <t>Invoice.participant.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Invoice.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Invoice.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Invoice.participant` has is mapped to FHIR R4 element `Invoice.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t>Invoice.participant.modifierExtension</t>
@@ -825,23 +835,23 @@
     <t>Invoice.lineItem.extension</t>
   </si>
   <si>
-    <t>Invoice.lineItem.extension:serviced</t>
-  </si>
-  <si>
-    <t>serviced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem.serviced|0.0.1-snapshot-3}
+    <t>Invoice.lineItem.extension:lineItem</t>
+  </si>
+  <si>
+    <t>lineItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Invoice.lineItem.serviced[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Date/time(s) range when this service was delivered or completed.</t>
-  </si>
-  <si>
-    <t>Element `Invoice.lineItem.serviced[x]` is will have a context of Invoice.lineItem based on following the parent source element upwards and mapping to `Invoice`.</t>
+    <t>Cross-version extension for Invoice.lineItem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Each line item represents one charge for goods and services rendered. Details such.ofType(date), code and amount are found in the referenced ChargeItem resource.</t>
+  </si>
+  <si>
+    <t>Element `Invoice.lineItem` has is mapped to FHIR R4 element `Invoice.lineItem`, but has no comparisons.</t>
   </si>
   <si>
     <t>Invoice.lineItem.modifierExtension</t>
@@ -886,6 +896,12 @@
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.modifierExtension</t>
@@ -1316,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3765,7 +3781,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3787,14 +3803,12 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3831,19 +3845,17 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3861,7 +3873,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3872,14 +3884,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3892,26 +3906,24 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3968,7 +3980,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -3977,7 +3989,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3988,42 +4000,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4071,25 +4087,25 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4100,10 +4116,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4111,7 +4127,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4126,13 +4142,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4183,10 +4199,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4198,13 +4214,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4212,10 +4228,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4223,7 +4239,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4238,17 +4254,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4297,10 +4311,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4312,13 +4326,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4326,10 +4340,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4352,16 +4366,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4411,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4426,10 +4440,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4440,10 +4454,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4454,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4466,15 +4480,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4523,13 +4539,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4538,10 +4554,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4566,7 +4582,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4578,13 +4594,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4635,25 +4651,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4664,10 +4680,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4678,7 +4694,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4690,13 +4706,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4735,35 +4751,37 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4774,14 +4792,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4790,7 +4806,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4802,17 +4818,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4849,19 +4863,17 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4870,7 +4882,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>138</v>
@@ -4890,14 +4902,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4910,26 +4924,24 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4986,7 +4998,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>138</v>
@@ -4995,7 +5007,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5006,42 +5018,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5089,25 +5105,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5118,10 +5134,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5129,7 +5145,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5144,13 +5160,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5201,10 +5217,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5216,10 +5232,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5230,10 +5246,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5241,10 +5257,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5256,7 +5272,7 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>275</v>
@@ -5313,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5331,7 +5347,7 @@
         <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5372,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5368,13 +5384,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5425,25 +5441,25 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5454,21 +5470,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5480,17 +5496,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5539,19 +5553,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5568,14 +5582,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5588,26 +5602,24 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5655,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5673,7 +5685,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5684,42 +5696,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5743,13 +5759,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5767,31 +5783,31 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -5807,7 +5823,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -5822,7 +5838,7 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>286</v>
@@ -5855,13 +5871,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5882,7 +5898,7 @@
         <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>87</v>
@@ -5908,10 +5924,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5934,17 +5950,15 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>292</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5993,7 +6007,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6008,24 +6022,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6048,16 +6062,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6107,7 +6121,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6122,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6136,10 +6150,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6150,7 +6164,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6162,15 +6176,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6219,13 +6235,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6234,10 +6250,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6248,10 +6264,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6262,7 +6278,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6271,20 +6287,18 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6333,13 +6347,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6348,10 +6362,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6362,10 +6376,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6388,16 +6402,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6447,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6462,7 +6476,7 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6476,10 +6490,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6499,19 +6513,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6561,7 +6575,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6590,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6604,7 +6618,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6624,7 +6638,9 @@
       <c r="M47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6679,7 +6695,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6688,16 +6704,128 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="B48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>318</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Invoice.xlsx
+++ b/StructureDefinition-profile-Invoice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8340044-06:00</t>
+    <t>2026-02-20T11:59:20.8580896-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Invoice|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Invoice</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>creation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.creation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.creation}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.period|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.period}
 </t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.participant}
 </t>
   </si>
   <si>
@@ -841,7 +841,7 @@
     <t>lineItem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Invoice.xlsx
+++ b/StructureDefinition-profile-Invoice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="319">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8580896-06:00</t>
+    <t>2026-02-21T13:36:54.2605336-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Invoice</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Invoice|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>creation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.creation}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.creation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.period}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.period|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -718,23 +718,13 @@
     <t>Invoice.participant.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Invoice.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.participant}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Invoice.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Invoice.participant` has is mapped to FHIR R4 element `Invoice.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t>Invoice.participant.modifierExtension</t>
@@ -835,23 +825,23 @@
     <t>Invoice.lineItem.extension</t>
   </si>
   <si>
-    <t>Invoice.lineItem.extension:lineItem</t>
-  </si>
-  <si>
-    <t>lineItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem}
+    <t>Invoice.lineItem.extension:serviced</t>
+  </si>
+  <si>
+    <t>serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Invoice.lineItem.serviced|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Invoice.lineItem from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Each line item represents one charge for goods and services rendered. Details such.ofType(date), code and amount are found in the referenced ChargeItem resource.</t>
-  </si>
-  <si>
-    <t>Element `Invoice.lineItem` has is mapped to FHIR R4 element `Invoice.lineItem`, but has no comparisons.</t>
+    <t>Cross-version extension for Invoice.lineItem.serviced[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Date/time(s) range when this service was delivered or completed.</t>
+  </si>
+  <si>
+    <t>Element `Invoice.lineItem.serviced[x]` has a context of Invoice.lineItem based on following the parent source element upwards and mapping to `Invoice`.</t>
   </si>
   <si>
     <t>Invoice.lineItem.modifierExtension</t>
@@ -896,12 +886,6 @@
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.modifierExtension</t>
@@ -1332,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3781,7 +3765,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3803,12 +3787,14 @@
         <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3845,17 +3831,19 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3873,7 +3861,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3884,16 +3872,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3906,24 +3892,26 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3971,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3980,7 +3968,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -3989,7 +3977,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4000,46 +3988,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4087,25 +4071,25 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4116,10 +4100,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4127,7 +4111,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4142,13 +4126,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4199,10 +4183,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4214,13 +4198,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4228,10 +4212,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4239,7 +4223,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4254,15 +4238,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4311,10 +4297,10 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4326,13 +4312,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4340,10 +4326,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4366,16 +4352,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4425,7 +4411,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4440,10 +4426,10 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4454,10 +4440,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4468,7 +4454,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4480,17 +4466,15 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4539,13 +4523,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4554,10 +4538,10 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4582,7 +4566,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4594,13 +4578,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4651,25 +4635,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4680,10 +4664,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4694,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4706,13 +4690,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4751,37 +4735,35 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4792,12 +4774,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4806,7 +4790,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4818,15 +4802,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4863,17 +4849,19 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4882,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>138</v>
@@ -4902,16 +4890,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4924,24 +4910,26 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -4989,7 +4977,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4998,7 +4986,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>138</v>
@@ -5007,7 +4995,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5018,46 +5006,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5105,25 +5089,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5134,10 +5118,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5145,7 +5129,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5160,13 +5144,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5217,10 +5201,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5232,10 +5216,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5246,10 +5230,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5257,10 +5241,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5272,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>275</v>
@@ -5329,13 +5313,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5347,7 +5331,7 @@
         <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5356,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5384,13 +5368,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5441,25 +5425,25 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5470,21 +5454,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5496,15 +5480,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5553,19 +5539,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5582,14 +5568,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5602,24 +5588,26 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5667,7 +5655,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5685,7 +5673,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5696,46 +5684,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5759,13 +5743,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5783,31 +5767,31 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -5823,7 +5807,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -5838,7 +5822,7 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>286</v>
@@ -5871,13 +5855,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5898,7 +5882,7 @@
         <v>285</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>87</v>
@@ -5924,10 +5908,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5950,15 +5934,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6007,7 +5993,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6022,24 +6008,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6062,16 +6048,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6121,7 +6107,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6136,7 +6122,7 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6150,10 +6136,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6164,7 +6150,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6176,17 +6162,15 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6235,13 +6219,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6250,10 +6234,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6264,10 +6248,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6278,7 +6262,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6287,18 +6271,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6347,13 +6333,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6362,10 +6348,10 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6376,10 +6362,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6402,16 +6388,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6461,7 +6447,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6462,7 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6490,10 +6476,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6513,19 +6499,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6575,7 +6561,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6590,7 +6576,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6604,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6638,9 +6624,7 @@
       <c r="M47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6695,7 +6679,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6704,128 +6688,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
